--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.04799011120851</v>
+        <v>2.130629666666667</v>
       </c>
       <c r="H2">
-        <v>2.04799011120851</v>
+        <v>6.391889000000001</v>
       </c>
       <c r="I2">
-        <v>0.1299423318573989</v>
+        <v>0.1148758300471003</v>
       </c>
       <c r="J2">
-        <v>0.1299423318573989</v>
+        <v>0.1232146053634831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.84358415342867</v>
+        <v>5.314766333333334</v>
       </c>
       <c r="N2">
-        <v>4.84358415342867</v>
+        <v>15.944299</v>
       </c>
       <c r="O2">
-        <v>0.2454741095238515</v>
+        <v>0.2451567515774309</v>
       </c>
       <c r="P2">
-        <v>0.2454741095238515</v>
+        <v>0.2584722607840235</v>
       </c>
       <c r="Q2">
-        <v>9.919612449028158</v>
+        <v>11.32379882120123</v>
       </c>
       <c r="R2">
-        <v>9.919612449028158</v>
+        <v>101.914189390811</v>
       </c>
       <c r="S2">
-        <v>0.03189747820214781</v>
+        <v>0.02816258532910814</v>
       </c>
       <c r="T2">
-        <v>0.03189747820214781</v>
+        <v>0.03184755760991074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.04799011120851</v>
+        <v>2.130629666666667</v>
       </c>
       <c r="H3">
-        <v>2.04799011120851</v>
+        <v>6.391889000000001</v>
       </c>
       <c r="I3">
-        <v>0.1299423318573989</v>
+        <v>0.1148758300471003</v>
       </c>
       <c r="J3">
-        <v>0.1299423318573989</v>
+        <v>0.1232146053634831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.77493205222612</v>
+        <v>5.194472666666667</v>
       </c>
       <c r="N3">
-        <v>4.77493205222612</v>
+        <v>15.583418</v>
       </c>
       <c r="O3">
-        <v>0.2419948031102925</v>
+        <v>0.2396079084664221</v>
       </c>
       <c r="P3">
-        <v>0.2419948031102925</v>
+        <v>0.252622036327997</v>
       </c>
       <c r="Q3">
-        <v>9.77901362465165</v>
+        <v>11.06749756628911</v>
       </c>
       <c r="R3">
-        <v>9.77901362465165</v>
+        <v>99.60747809660201</v>
       </c>
       <c r="S3">
-        <v>0.03144536901352354</v>
+        <v>0.02752515737092986</v>
       </c>
       <c r="T3">
-        <v>0.03144536901352354</v>
+        <v>0.03112672451227363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.04799011120851</v>
+        <v>2.130629666666667</v>
       </c>
       <c r="H4">
-        <v>2.04799011120851</v>
+        <v>6.391889000000001</v>
       </c>
       <c r="I4">
-        <v>0.1299423318573989</v>
+        <v>0.1148758300471003</v>
       </c>
       <c r="J4">
-        <v>0.1299423318573989</v>
+        <v>0.1232146053634831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.56651881757784</v>
+        <v>4.528277333333333</v>
       </c>
       <c r="N4">
-        <v>3.56651881757784</v>
+        <v>13.584832</v>
       </c>
       <c r="O4">
-        <v>0.1807521048695398</v>
+        <v>0.2088779998321114</v>
       </c>
       <c r="P4">
-        <v>0.1807521048695398</v>
+        <v>0.2202230552381856</v>
       </c>
       <c r="Q4">
-        <v>7.304195269838484</v>
+        <v>9.648082025294222</v>
       </c>
       <c r="R4">
-        <v>7.304195269838484</v>
+        <v>86.83273822764801</v>
       </c>
       <c r="S4">
-        <v>0.02348734999488112</v>
+        <v>0.02399503360929187</v>
       </c>
       <c r="T4">
-        <v>0.02348734999488112</v>
+        <v>0.02713469684311357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.04799011120851</v>
+        <v>2.130629666666667</v>
       </c>
       <c r="H5">
-        <v>2.04799011120851</v>
+        <v>6.391889000000001</v>
       </c>
       <c r="I5">
-        <v>0.1299423318573989</v>
+        <v>0.1148758300471003</v>
       </c>
       <c r="J5">
-        <v>0.1299423318573989</v>
+        <v>0.1232146053634831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.20047362390379</v>
+        <v>3.291069666666667</v>
       </c>
       <c r="N5">
-        <v>3.20047362390379</v>
+        <v>9.873208999999999</v>
       </c>
       <c r="O5">
-        <v>0.1622008388821373</v>
+        <v>0.1518087340236818</v>
       </c>
       <c r="P5">
-        <v>0.1622008388821373</v>
+        <v>0.1600541141020479</v>
       </c>
       <c r="Q5">
-        <v>6.554538332938626</v>
+        <v>7.012050666866779</v>
       </c>
       <c r="R5">
-        <v>6.554538332938626</v>
+        <v>63.108456001801</v>
       </c>
       <c r="S5">
-        <v>0.02107675523357118</v>
+        <v>0.01743915432936992</v>
       </c>
       <c r="T5">
-        <v>0.02107675523357118</v>
+        <v>0.01972100450588572</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.04799011120851</v>
+        <v>2.130629666666667</v>
       </c>
       <c r="H6">
-        <v>2.04799011120851</v>
+        <v>6.391889000000001</v>
       </c>
       <c r="I6">
-        <v>0.1299423318573989</v>
+        <v>0.1148758300471003</v>
       </c>
       <c r="J6">
-        <v>0.1299423318573989</v>
+        <v>0.1232146053634831</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.3460392656916</v>
+        <v>3.3504675</v>
       </c>
       <c r="N6">
-        <v>3.3460392656916</v>
+        <v>6.700935</v>
       </c>
       <c r="O6">
-        <v>0.1695781436141788</v>
+        <v>0.154548606100354</v>
       </c>
       <c r="P6">
-        <v>0.1695781436141788</v>
+        <v>0.1086285335477459</v>
       </c>
       <c r="Q6">
-        <v>6.852655327851781</v>
+        <v>7.138605452702501</v>
       </c>
       <c r="R6">
-        <v>6.852655327851781</v>
+        <v>42.831632716215</v>
       </c>
       <c r="S6">
-        <v>0.02203537941327528</v>
+        <v>0.01775389940840051</v>
       </c>
       <c r="T6">
-        <v>0.02203537941327528</v>
+        <v>0.01338462189229939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.24854333036963</v>
+        <v>4.966822333333333</v>
       </c>
       <c r="H7">
-        <v>4.24854333036963</v>
+        <v>14.900467</v>
       </c>
       <c r="I7">
-        <v>0.269564596198005</v>
+        <v>0.2677930600350578</v>
       </c>
       <c r="J7">
-        <v>0.269564596198005</v>
+        <v>0.2872320156273994</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.84358415342867</v>
+        <v>5.314766333333334</v>
       </c>
       <c r="N7">
-        <v>4.84358415342867</v>
+        <v>15.944299</v>
       </c>
       <c r="O7">
-        <v>0.2454741095238515</v>
+        <v>0.2451567515774309</v>
       </c>
       <c r="P7">
-        <v>0.2454741095238515</v>
+        <v>0.2584722607840235</v>
       </c>
       <c r="Q7">
-        <v>20.57817715013341</v>
+        <v>26.39750012084811</v>
       </c>
       <c r="R7">
-        <v>20.57817715013341</v>
+        <v>237.577501087633</v>
       </c>
       <c r="S7">
-        <v>0.06617112921086189</v>
+        <v>0.06565127669317471</v>
       </c>
       <c r="T7">
-        <v>0.06617112921086189</v>
+        <v>0.07424150844876588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.24854333036963</v>
+        <v>4.966822333333333</v>
       </c>
       <c r="H8">
-        <v>4.24854333036963</v>
+        <v>14.900467</v>
       </c>
       <c r="I8">
-        <v>0.269564596198005</v>
+        <v>0.2677930600350578</v>
       </c>
       <c r="J8">
-        <v>0.269564596198005</v>
+        <v>0.2872320156273994</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.77493205222612</v>
+        <v>5.194472666666667</v>
       </c>
       <c r="N8">
-        <v>4.77493205222612</v>
+        <v>15.583418</v>
       </c>
       <c r="O8">
-        <v>0.2419948031102925</v>
+        <v>0.2396079084664221</v>
       </c>
       <c r="P8">
-        <v>0.2419948031102925</v>
+        <v>0.252622036327997</v>
       </c>
       <c r="Q8">
-        <v>20.28650572345345</v>
+        <v>25.80002285068955</v>
       </c>
       <c r="R8">
-        <v>20.28650572345345</v>
+        <v>232.200205656206</v>
       </c>
       <c r="S8">
-        <v>0.06523323138244172</v>
+        <v>0.0641653350168232</v>
       </c>
       <c r="T8">
-        <v>0.06523323138244172</v>
+        <v>0.07256113668638869</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.24854333036963</v>
+        <v>4.966822333333333</v>
       </c>
       <c r="H9">
-        <v>4.24854333036963</v>
+        <v>14.900467</v>
       </c>
       <c r="I9">
-        <v>0.269564596198005</v>
+        <v>0.2677930600350578</v>
       </c>
       <c r="J9">
-        <v>0.269564596198005</v>
+        <v>0.2872320156273994</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.56651881757784</v>
+        <v>4.528277333333333</v>
       </c>
       <c r="N9">
-        <v>3.56651881757784</v>
+        <v>13.584832</v>
       </c>
       <c r="O9">
-        <v>0.1807521048695398</v>
+        <v>0.2088779998321114</v>
       </c>
       <c r="P9">
-        <v>0.1807521048695398</v>
+        <v>0.2202230552381856</v>
       </c>
       <c r="Q9">
-        <v>15.15250973505811</v>
+        <v>22.4911489907271</v>
       </c>
       <c r="R9">
-        <v>15.15250973505811</v>
+        <v>202.420340916544</v>
       </c>
       <c r="S9">
-        <v>0.04872436816109695</v>
+        <v>0.0559360787490434</v>
       </c>
       <c r="T9">
-        <v>0.04872436816109695</v>
+        <v>0.06325511204368817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.24854333036963</v>
+        <v>4.966822333333333</v>
       </c>
       <c r="H10">
-        <v>4.24854333036963</v>
+        <v>14.900467</v>
       </c>
       <c r="I10">
-        <v>0.269564596198005</v>
+        <v>0.2677930600350578</v>
       </c>
       <c r="J10">
-        <v>0.269564596198005</v>
+        <v>0.2872320156273994</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.20047362390379</v>
+        <v>3.291069666666667</v>
       </c>
       <c r="N10">
-        <v>3.20047362390379</v>
+        <v>9.873208999999999</v>
       </c>
       <c r="O10">
-        <v>0.1622008388821373</v>
+        <v>0.1518087340236818</v>
       </c>
       <c r="P10">
-        <v>0.1622008388821373</v>
+        <v>0.1600541141020479</v>
       </c>
       <c r="Q10">
-        <v>13.59735086886037</v>
+        <v>16.34615832095589</v>
       </c>
       <c r="R10">
-        <v>13.59735086886037</v>
+        <v>147.115424888603</v>
       </c>
       <c r="S10">
-        <v>0.043723603636241</v>
+        <v>0.04065332542424993</v>
       </c>
       <c r="T10">
-        <v>0.043723603636241</v>
+        <v>0.04597266580298898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.24854333036963</v>
+        <v>4.966822333333333</v>
       </c>
       <c r="H11">
-        <v>4.24854333036963</v>
+        <v>14.900467</v>
       </c>
       <c r="I11">
-        <v>0.269564596198005</v>
+        <v>0.2677930600350578</v>
       </c>
       <c r="J11">
-        <v>0.269564596198005</v>
+        <v>0.2872320156273994</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.3460392656916</v>
+        <v>3.3504675</v>
       </c>
       <c r="N11">
-        <v>3.3460392656916</v>
+        <v>6.700935</v>
       </c>
       <c r="O11">
-        <v>0.1695781436141788</v>
+        <v>0.154548606100354</v>
       </c>
       <c r="P11">
-        <v>0.1695781436141788</v>
+        <v>0.1086285335477459</v>
       </c>
       <c r="Q11">
-        <v>14.21579280540894</v>
+        <v>16.6411768061075</v>
       </c>
       <c r="R11">
-        <v>14.21579280540894</v>
+        <v>99.847060836645</v>
       </c>
       <c r="S11">
-        <v>0.04571226380736341</v>
+        <v>0.0413870441517666</v>
       </c>
       <c r="T11">
-        <v>0.04571226380736341</v>
+        <v>0.03120159264556762</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.23942627582119</v>
+        <v>4.754271333333334</v>
       </c>
       <c r="H12">
-        <v>4.23942627582119</v>
+        <v>14.262814</v>
       </c>
       <c r="I12">
-        <v>0.2689861308425271</v>
+        <v>0.2563330804176046</v>
       </c>
       <c r="J12">
-        <v>0.2689861308425271</v>
+        <v>0.2749401621934863</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.84358415342867</v>
+        <v>5.314766333333334</v>
       </c>
       <c r="N12">
-        <v>4.84358415342867</v>
+        <v>15.944299</v>
       </c>
       <c r="O12">
-        <v>0.2454741095238515</v>
+        <v>0.2451567515774309</v>
       </c>
       <c r="P12">
-        <v>0.2454741095238515</v>
+        <v>0.2584722607840235</v>
       </c>
       <c r="Q12">
-        <v>20.53401792919664</v>
+        <v>25.26784122193178</v>
       </c>
       <c r="R12">
-        <v>20.53401792919664</v>
+        <v>227.410570997386</v>
       </c>
       <c r="S12">
-        <v>0.06602913094283555</v>
+        <v>0.06284178531701631</v>
       </c>
       <c r="T12">
-        <v>0.06602913094283555</v>
+        <v>0.07106440530247653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.23942627582119</v>
+        <v>4.754271333333334</v>
       </c>
       <c r="H13">
-        <v>4.23942627582119</v>
+        <v>14.262814</v>
       </c>
       <c r="I13">
-        <v>0.2689861308425271</v>
+        <v>0.2563330804176046</v>
       </c>
       <c r="J13">
-        <v>0.2689861308425271</v>
+        <v>0.2749401621934863</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.77493205222612</v>
+        <v>5.194472666666667</v>
       </c>
       <c r="N13">
-        <v>4.77493205222612</v>
+        <v>15.583418</v>
       </c>
       <c r="O13">
-        <v>0.2419948031102925</v>
+        <v>0.2396079084664221</v>
       </c>
       <c r="P13">
-        <v>0.2419948031102925</v>
+        <v>0.252622036327997</v>
       </c>
       <c r="Q13">
-        <v>20.24297240746821</v>
+        <v>24.69593249091689</v>
       </c>
       <c r="R13">
-        <v>20.24297240746821</v>
+        <v>222.263392418252</v>
       </c>
       <c r="S13">
-        <v>0.06509324577263673</v>
+        <v>0.06141943326961741</v>
       </c>
       <c r="T13">
-        <v>0.06509324577263673</v>
+        <v>0.06945594364166829</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.23942627582119</v>
+        <v>4.754271333333334</v>
       </c>
       <c r="H14">
-        <v>4.23942627582119</v>
+        <v>14.262814</v>
       </c>
       <c r="I14">
-        <v>0.2689861308425271</v>
+        <v>0.2563330804176046</v>
       </c>
       <c r="J14">
-        <v>0.2689861308425271</v>
+        <v>0.2749401621934863</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.56651881757784</v>
+        <v>4.528277333333333</v>
       </c>
       <c r="N14">
-        <v>3.56651881757784</v>
+        <v>13.584832</v>
       </c>
       <c r="O14">
-        <v>0.1807521048695398</v>
+        <v>0.2088779998321114</v>
       </c>
       <c r="P14">
-        <v>0.1807521048695398</v>
+        <v>0.2202230552381856</v>
       </c>
       <c r="Q14">
-        <v>15.11999358845022</v>
+        <v>21.52865911524977</v>
       </c>
       <c r="R14">
-        <v>15.11999358845022</v>
+        <v>193.757932037248</v>
       </c>
       <c r="S14">
-        <v>0.04861980933050022</v>
+        <v>0.053542341128433</v>
       </c>
       <c r="T14">
-        <v>0.04861980933050022</v>
+        <v>0.06054816252593185</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.23942627582119</v>
+        <v>4.754271333333334</v>
       </c>
       <c r="H15">
-        <v>4.23942627582119</v>
+        <v>14.262814</v>
       </c>
       <c r="I15">
-        <v>0.2689861308425271</v>
+        <v>0.2563330804176046</v>
       </c>
       <c r="J15">
-        <v>0.2689861308425271</v>
+        <v>0.2749401621934863</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.20047362390379</v>
+        <v>3.291069666666667</v>
       </c>
       <c r="N15">
-        <v>3.20047362390379</v>
+        <v>9.873208999999999</v>
       </c>
       <c r="O15">
-        <v>0.1622008388821373</v>
+        <v>0.1518087340236818</v>
       </c>
       <c r="P15">
-        <v>0.1622008388821373</v>
+        <v>0.1600541141020479</v>
       </c>
       <c r="Q15">
-        <v>13.56817197625039</v>
+        <v>15.64663817223622</v>
       </c>
       <c r="R15">
-        <v>13.56817197625039</v>
+        <v>140.819743550126</v>
       </c>
       <c r="S15">
-        <v>0.04362977607031824</v>
+        <v>0.03891360042658716</v>
       </c>
       <c r="T15">
-        <v>0.04362977607031824</v>
+        <v>0.04400530409095182</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.23942627582119</v>
+        <v>4.754271333333334</v>
       </c>
       <c r="H16">
-        <v>4.23942627582119</v>
+        <v>14.262814</v>
       </c>
       <c r="I16">
-        <v>0.2689861308425271</v>
+        <v>0.2563330804176046</v>
       </c>
       <c r="J16">
-        <v>0.2689861308425271</v>
+        <v>0.2749401621934863</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.3460392656916</v>
+        <v>3.3504675</v>
       </c>
       <c r="N16">
-        <v>3.3460392656916</v>
+        <v>6.700935</v>
       </c>
       <c r="O16">
-        <v>0.1695781436141788</v>
+        <v>0.154548606100354</v>
       </c>
       <c r="P16">
-        <v>0.1695781436141788</v>
+        <v>0.1086285335477459</v>
       </c>
       <c r="Q16">
-        <v>14.18528678290241</v>
+        <v>15.929031588515</v>
       </c>
       <c r="R16">
-        <v>14.18528678290241</v>
+        <v>95.57418953109001</v>
       </c>
       <c r="S16">
-        <v>0.04561416872623635</v>
+        <v>0.03961592027595073</v>
       </c>
       <c r="T16">
-        <v>0.04561416872623635</v>
+        <v>0.02986634663245782</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.51606560459086</v>
+        <v>2.929861333333333</v>
       </c>
       <c r="H17">
-        <v>1.51606560459086</v>
+        <v>8.789584</v>
       </c>
       <c r="I17">
-        <v>0.09619240778124862</v>
+        <v>0.1579675050315661</v>
       </c>
       <c r="J17">
-        <v>0.09619240778124862</v>
+        <v>0.1694342820829937</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.84358415342867</v>
+        <v>5.314766333333334</v>
       </c>
       <c r="N17">
-        <v>4.84358415342867</v>
+        <v>15.944299</v>
       </c>
       <c r="O17">
-        <v>0.2454741095238515</v>
+        <v>0.2451567515774309</v>
       </c>
       <c r="P17">
-        <v>0.2454741095238515</v>
+        <v>0.2584722607840235</v>
       </c>
       <c r="Q17">
-        <v>7.343191337954545</v>
+        <v>15.57152837573511</v>
       </c>
       <c r="R17">
-        <v>7.343191337954545</v>
+        <v>140.143755381616</v>
       </c>
       <c r="S17">
-        <v>0.02361274564305721</v>
+        <v>0.03872680038833021</v>
       </c>
       <c r="T17">
-        <v>0.02361274564305721</v>
+        <v>0.04379406194430936</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.51606560459086</v>
+        <v>2.929861333333333</v>
       </c>
       <c r="H18">
-        <v>1.51606560459086</v>
+        <v>8.789584</v>
       </c>
       <c r="I18">
-        <v>0.09619240778124862</v>
+        <v>0.1579675050315661</v>
       </c>
       <c r="J18">
-        <v>0.09619240778124862</v>
+        <v>0.1694342820829937</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.77493205222612</v>
+        <v>5.194472666666667</v>
       </c>
       <c r="N18">
-        <v>4.77493205222612</v>
+        <v>15.583418</v>
       </c>
       <c r="O18">
-        <v>0.2419948031102925</v>
+        <v>0.2396079084664221</v>
       </c>
       <c r="P18">
-        <v>0.2419948031102925</v>
+        <v>0.252622036327997</v>
       </c>
       <c r="Q18">
-        <v>7.239110248638469</v>
+        <v>15.21908461312356</v>
       </c>
       <c r="R18">
-        <v>7.239110248638469</v>
+        <v>136.971761518112</v>
       </c>
       <c r="S18">
-        <v>0.02327806278172823</v>
+        <v>0.03785026348627255</v>
       </c>
       <c r="T18">
-        <v>0.02327806278172823</v>
+        <v>0.04280283336357814</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.51606560459086</v>
+        <v>2.929861333333333</v>
       </c>
       <c r="H19">
-        <v>1.51606560459086</v>
+        <v>8.789584</v>
       </c>
       <c r="I19">
-        <v>0.09619240778124862</v>
+        <v>0.1579675050315661</v>
       </c>
       <c r="J19">
-        <v>0.09619240778124862</v>
+        <v>0.1694342820829937</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.56651881757784</v>
+        <v>4.528277333333333</v>
       </c>
       <c r="N19">
-        <v>3.56651881757784</v>
+        <v>13.584832</v>
       </c>
       <c r="O19">
-        <v>0.1807521048695398</v>
+        <v>0.2088779998321114</v>
       </c>
       <c r="P19">
-        <v>0.1807521048695398</v>
+        <v>0.2202230552381856</v>
       </c>
       <c r="Q19">
-        <v>5.407076507455828</v>
+        <v>13.26722466554311</v>
       </c>
       <c r="R19">
-        <v>5.407076507455828</v>
+        <v>119.405021989888</v>
       </c>
       <c r="S19">
-        <v>0.01738698017892979</v>
+        <v>0.03299593648946251</v>
       </c>
       <c r="T19">
-        <v>0.01738698017892979</v>
+        <v>0.03731333526240545</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.51606560459086</v>
+        <v>2.929861333333333</v>
       </c>
       <c r="H20">
-        <v>1.51606560459086</v>
+        <v>8.789584</v>
       </c>
       <c r="I20">
-        <v>0.09619240778124862</v>
+        <v>0.1579675050315661</v>
       </c>
       <c r="J20">
-        <v>0.09619240778124862</v>
+        <v>0.1694342820829937</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.20047362390379</v>
+        <v>3.291069666666667</v>
       </c>
       <c r="N20">
-        <v>3.20047362390379</v>
+        <v>9.873208999999999</v>
       </c>
       <c r="O20">
-        <v>0.1622008388821373</v>
+        <v>0.1518087340236818</v>
       </c>
       <c r="P20">
-        <v>0.1622008388821373</v>
+        <v>0.1600541141020479</v>
       </c>
       <c r="Q20">
-        <v>4.8521279796008</v>
+        <v>9.642377761672888</v>
       </c>
       <c r="R20">
-        <v>4.8521279796008</v>
+        <v>86.78139985505599</v>
       </c>
       <c r="S20">
-        <v>0.01560248923621116</v>
+        <v>0.02398084695572162</v>
       </c>
       <c r="T20">
-        <v>0.01560248923621116</v>
+        <v>0.02711865391731005</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.51606560459086</v>
+        <v>2.929861333333333</v>
       </c>
       <c r="H21">
-        <v>1.51606560459086</v>
+        <v>8.789584</v>
       </c>
       <c r="I21">
-        <v>0.09619240778124862</v>
+        <v>0.1579675050315661</v>
       </c>
       <c r="J21">
-        <v>0.09619240778124862</v>
+        <v>0.1694342820829937</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.3460392656916</v>
+        <v>3.3504675</v>
       </c>
       <c r="N21">
-        <v>3.3460392656916</v>
+        <v>6.700935</v>
       </c>
       <c r="O21">
-        <v>0.1695781436141788</v>
+        <v>0.154548606100354</v>
       </c>
       <c r="P21">
-        <v>0.1695781436141788</v>
+        <v>0.1086285335477459</v>
       </c>
       <c r="Q21">
-        <v>5.072815042325493</v>
+        <v>9.81640517684</v>
       </c>
       <c r="R21">
-        <v>5.072815042325493</v>
+        <v>58.89843106104</v>
       </c>
       <c r="S21">
-        <v>0.01631212994132223</v>
+        <v>0.02441365771177919</v>
       </c>
       <c r="T21">
-        <v>0.01631212994132223</v>
+        <v>0.01840539759539072</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.7087362553533</v>
+        <v>3.765656</v>
       </c>
       <c r="H22">
-        <v>3.7087362553533</v>
+        <v>7.531312</v>
       </c>
       <c r="I22">
-        <v>0.2353145333208204</v>
+        <v>0.2030305244686712</v>
       </c>
       <c r="J22">
-        <v>0.2353145333208204</v>
+        <v>0.1451789347326376</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.84358415342867</v>
+        <v>5.314766333333334</v>
       </c>
       <c r="N22">
-        <v>4.84358415342867</v>
+        <v>15.944299</v>
       </c>
       <c r="O22">
-        <v>0.2454741095238515</v>
+        <v>0.2451567515774309</v>
       </c>
       <c r="P22">
-        <v>0.2454741095238515</v>
+        <v>0.2584722607840235</v>
       </c>
       <c r="Q22">
-        <v>17.96357615567563</v>
+        <v>20.01358173171467</v>
       </c>
       <c r="R22">
-        <v>17.96357615567563</v>
+        <v>120.081490390288</v>
       </c>
       <c r="S22">
-        <v>0.05776362552494907</v>
+        <v>0.04977430384980153</v>
       </c>
       <c r="T22">
-        <v>0.05776362552494907</v>
+        <v>0.03752472747856104</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.7087362553533</v>
+        <v>3.765656</v>
       </c>
       <c r="H23">
-        <v>3.7087362553533</v>
+        <v>7.531312</v>
       </c>
       <c r="I23">
-        <v>0.2353145333208204</v>
+        <v>0.2030305244686712</v>
       </c>
       <c r="J23">
-        <v>0.2353145333208204</v>
+        <v>0.1451789347326376</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.77493205222612</v>
+        <v>5.194472666666667</v>
       </c>
       <c r="N23">
-        <v>4.77493205222612</v>
+        <v>15.583418</v>
       </c>
       <c r="O23">
-        <v>0.2419948031102925</v>
+        <v>0.2396079084664221</v>
       </c>
       <c r="P23">
-        <v>0.2419948031102925</v>
+        <v>0.252622036327997</v>
       </c>
       <c r="Q23">
-        <v>17.70896361893955</v>
+        <v>19.56059716406934</v>
       </c>
       <c r="R23">
-        <v>17.70896361893955</v>
+        <v>117.363582984416</v>
       </c>
       <c r="S23">
-        <v>0.05694489415996229</v>
+        <v>0.04864771932277903</v>
       </c>
       <c r="T23">
-        <v>0.05694489415996229</v>
+        <v>0.03667539812408829</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.7087362553533</v>
+        <v>3.765656</v>
       </c>
       <c r="H24">
-        <v>3.7087362553533</v>
+        <v>7.531312</v>
       </c>
       <c r="I24">
-        <v>0.2353145333208204</v>
+        <v>0.2030305244686712</v>
       </c>
       <c r="J24">
-        <v>0.2353145333208204</v>
+        <v>0.1451789347326376</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.56651881757784</v>
+        <v>4.528277333333333</v>
       </c>
       <c r="N24">
-        <v>3.56651881757784</v>
+        <v>13.584832</v>
       </c>
       <c r="O24">
-        <v>0.1807521048695398</v>
+        <v>0.2088779998321114</v>
       </c>
       <c r="P24">
-        <v>0.1807521048695398</v>
+        <v>0.2202230552381856</v>
       </c>
       <c r="Q24">
-        <v>13.22727764415072</v>
+        <v>17.05193470993066</v>
       </c>
       <c r="R24">
-        <v>13.22727764415072</v>
+        <v>102.311608259584</v>
       </c>
       <c r="S24">
-        <v>0.04253359720413175</v>
+        <v>0.04240860985588058</v>
       </c>
       <c r="T24">
-        <v>0.04253359720413175</v>
+        <v>0.0319717485630466</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.7087362553533</v>
+        <v>3.765656</v>
       </c>
       <c r="H25">
-        <v>3.7087362553533</v>
+        <v>7.531312</v>
       </c>
       <c r="I25">
-        <v>0.2353145333208204</v>
+        <v>0.2030305244686712</v>
       </c>
       <c r="J25">
-        <v>0.2353145333208204</v>
+        <v>0.1451789347326376</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.20047362390379</v>
+        <v>3.291069666666667</v>
       </c>
       <c r="N25">
-        <v>3.20047362390379</v>
+        <v>9.873208999999999</v>
       </c>
       <c r="O25">
-        <v>0.1622008388821373</v>
+        <v>0.1518087340236818</v>
       </c>
       <c r="P25">
-        <v>0.1622008388821373</v>
+        <v>0.1600541141020479</v>
       </c>
       <c r="Q25">
-        <v>11.86971256327395</v>
+        <v>12.39303623670133</v>
       </c>
       <c r="R25">
-        <v>11.86971256327395</v>
+        <v>74.35821742020799</v>
       </c>
       <c r="S25">
-        <v>0.03816821470579571</v>
+        <v>0.03082180688775311</v>
       </c>
       <c r="T25">
-        <v>0.03816821470579571</v>
+        <v>0.02323648578491134</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.7087362553533</v>
+        <v>3.765656</v>
       </c>
       <c r="H26">
-        <v>3.7087362553533</v>
+        <v>7.531312</v>
       </c>
       <c r="I26">
-        <v>0.2353145333208204</v>
+        <v>0.2030305244686712</v>
       </c>
       <c r="J26">
-        <v>0.2353145333208204</v>
+        <v>0.1451789347326376</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.3460392656916</v>
+        <v>3.3504675</v>
       </c>
       <c r="N26">
-        <v>3.3460392656916</v>
+        <v>6.700935</v>
       </c>
       <c r="O26">
-        <v>0.1695781436141788</v>
+        <v>0.154548606100354</v>
       </c>
       <c r="P26">
-        <v>0.1695781436141788</v>
+        <v>0.1086285335477459</v>
       </c>
       <c r="Q26">
-        <v>12.40957713650617</v>
+        <v>12.61670804418</v>
       </c>
       <c r="R26">
-        <v>12.40957713650617</v>
+        <v>50.46683217672</v>
       </c>
       <c r="S26">
-        <v>0.03990420172598154</v>
+        <v>0.03137808455245694</v>
       </c>
       <c r="T26">
-        <v>0.03990420172598154</v>
+        <v>0.01577057478203033</v>
       </c>
     </row>
   </sheetData>
